--- a/pred_ohlcv/54/2019-10-15 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 ETHOS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -427,6 +432,9 @@
       </c>
       <c r="H2" t="n">
         <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -454,6 +462,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -634,6 +663,9 @@
         <v>65.79833333333337</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,552 +692,9 @@
         <v>65.81166666666671</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2763.6366</v>
-      </c>
-      <c r="G12" t="n">
-        <v>65.78666666666672</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3056.3151</v>
-      </c>
-      <c r="G13" t="n">
-        <v>65.76166666666671</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>63</v>
-      </c>
-      <c r="C14" t="n">
-        <v>65</v>
-      </c>
-      <c r="D14" t="n">
-        <v>65</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>48631.6002</v>
-      </c>
-      <c r="G14" t="n">
-        <v>65.74000000000005</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15445.7233</v>
-      </c>
-      <c r="G15" t="n">
-        <v>65.71166666666672</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3186.0382</v>
-      </c>
-      <c r="G16" t="n">
-        <v>65.6816666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>65.67833333333337</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>65.64333333333337</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>559.4001</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65.61166666666671</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>960.0382</v>
-      </c>
-      <c r="G20" t="n">
-        <v>65.5766666666667</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>67709.4809</v>
-      </c>
-      <c r="G21" t="n">
-        <v>65.5416666666667</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>548.0266</v>
-      </c>
-      <c r="G22" t="n">
-        <v>65.50833333333337</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>65.48500000000004</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>846</v>
-      </c>
-      <c r="G24" t="n">
-        <v>65.4266666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>65.40000000000003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="D26" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="E26" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>77.0754</v>
-      </c>
-      <c r="G26" t="n">
-        <v>65.3566666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G27" t="n">
-        <v>65.33166666666669</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>34.29012345</v>
-      </c>
-      <c r="G28" t="n">
-        <v>65.3066666666667</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="n">
-        <v>65.28166666666669</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="C30" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2944</v>
-      </c>
-      <c r="G30" t="n">
-        <v>65.25166666666669</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3458</v>
-      </c>
-      <c r="G31" t="n">
-        <v>65.22000000000003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1641</v>
-      </c>
-      <c r="G32" t="n">
-        <v>65.18000000000004</v>
-      </c>
-      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
